--- a/data/電動大巴.xlsx
+++ b/data/電動大巴.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="694">
   <si>
     <t>﻿標題</t>
   </si>
@@ -135,13 +135,13 @@
 </t>
   </si>
   <si>
-    <t>37</t>
+    <t>39</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
   </si>
   <si>
     <t>1</t>
@@ -216,6 +216,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
@@ -276,9 +279,6 @@
 若民眾對新方案不滿意，可能影響政府形象。
 其他縣市推出更優惠的電動機車政策，可能流失基隆市的申請者。
 </t>
-  </si>
-  <si>
-    <t>39</t>
   </si>
   <si>
     <t>12</t>
@@ -529,10 +529,7 @@
 </t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>40</t>
   </si>
   <si>
     <t>大巴智慧充電系統明年補助每案逾百萬- 要聞</t>
@@ -678,16 +675,10 @@
 </t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>103</t>
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>旅宿業缺工未解 交長：僅開放僑外生不夠 續跟勞動部溝通</t>
@@ -1254,9 +1245,6 @@
   </si>
   <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>旅宿業開放僑外生仍缺人 交長喊話業者：調整薪資待遇</t>
@@ -2540,6 +2528,12 @@
     <t>國際能源政策變化及市場風險原物料價格波動新興技術的挑戰與競爭</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>中碳董座謝文榮將退休</t>
   </si>
   <si>
@@ -2671,7 +2665,10 @@
 </t>
   </si>
   <si>
-    <t>81</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>台塑(1301)股價近20年新低，外資掃貨1.2萬張，可以抄底了？強彈仍待3關鍵，艾蜜莉揭「進場時間點」</t>
@@ -2800,7 +2797,7 @@
 </t>
   </si>
   <si>
-    <t>61</t>
+    <t>67</t>
   </si>
   <si>
     <t>財劃法三讀 謝國樑：預算增加 可設立6座以上立體停車場</t>
@@ -2854,6 +2851,9 @@
 政治爭議持續延燒，影響預算執行。
 部分人士的反對意見可能阻礙相關建設的推動。
 </t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>印度迅速崛起為亞洲老二</t>
@@ -2985,7 +2985,7 @@
 </t>
   </si>
   <si>
-    <t>57</t>
+    <t>62</t>
   </si>
   <si>
     <t>綠色印度．智慧製造 東元電機的先發優勢</t>
@@ -3035,9 +3035,6 @@
 競爭對手可能進入印度市場，加劇競爭。
 地緣政治風險和政策變動可能造成不確定性。
 </t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
   <si>
     <t>蘇州金龍海格新V系產品 引領客車領域新趨勢</t>
@@ -3093,6 +3090,129 @@
     <t xml:space="preserve">競爭對手推出同類型產品，帶來市場壓力。
 原材料價格波動，影響生產成本。
 政策調整或環保法規變化，影響市場發展。
+</t>
+  </si>
+  <si>
+    <t>航天走廊無人駕駛巴士明年試運行 機管局料26架車分階段投入服務</t>
+  </si>
+  <si>
+    <t>https://hk.on.cc/hk/bkn/cnt/news/20241227/bkn-20241227060015806-1227_00822_001.html</t>
+  </si>
+  <si>
+    <t>on.cc東網香港機場管理局正發展機場城市，近年積極發展無人駕駛車輛，並將技術運用於機場運作，先有引入無人駕駛拖車、無人駕駛巡邏車，以...12 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">航天走廊無人駕駛巴士明年試運行　機管局料26架車分階段投入服務
+2024年12月27日 06:00
+Tweet
+機管局指發展無人駕駛車輛有三個理念，包括效率、安全、減少對人手的依賴。(余思嵐攝)
+香港機場管理局正發展機場城市，近年積極發展無人駕駛車輛，並將技術運用於機場運作，先有引入無人駕駛拖車、無人駕駛巡邏車，以及去年第二季起運作禁區無人駕駛巴士，機管局表示，該些無人車系統會應用到三跑系統，預計首階段於明年底可載客來往機場至航天城及港珠澳大橋，初步計劃分階段投入26架自動駕駛車輛，至2028年則延伸至東涌新市鎮。
+機管局機場運行執行總監姚兆聰表示，車外及車內均有攝影鏡頭，所以若自動駕駛車輛發生特別事情，會即時知道之前一架無人駕駛電動巴士的行走路線和技術參數，出現甚麼問題，巴士亦有集中系統，可以監控自動駕駛車輛運作情況。
+連接航天城的「航天走廊」交通運輸，亦將引入自動駕駛系統，提供無人駕駛電動巴士服務，將連接港珠澳大橋香港口岸人工島及SKYCITY航天城，路線全長約850米，最高時速可達40公里，訪客將可於短短3分鐘內，由香港口岸到達SKYCITY航天城，每輛巴士每程最多可接載16人，初期目標每輛巴士單向每小時可接載約500人次，中長期目標增至2,000人次。機管局亦指航天走廊自動駕駛運輸系統的下一階段發展，將進一步由SKYCITY航天城延伸至東涌市中心，最快2028年落成。
+香港機場是全球唯一大規模應用無人駕駛車輛於實際運作的機場，包括47架無人駕駛拖車運送行李及貨物；8架無人駕駛巡邏車提升機場保安，甚至6架無人駕駛穿梭巴士接載機場員工往返停機坪，以全面達至自動駕駛等級四，不需安全員跟車。機管局稱，該些無人駕駛拖車、無人駕駛巡邏車及無人駕駛巴士的總行車距離超過171.7萬公里，相當於環繞地球42次，每次都會檢視以上相關數字「因為每次都變緊」。
+此外，機管局表示，已推行三年的禁區車輛共享服務，是有牌照的網約車，員工可透過流動應用程式隨時預訂車輛，點對點往來機場禁區內的預定地點，目前共有84架禁區車輛，希望該共享服務擴展無人駕駛車輛並擴充車隊。
+提到自動駕駛技術除了可以應用在汽車上，也可以在其他的交通工具上應用。姚兆聰則稱，機場內曾嘗試不同種類的自動駕駛電動輪椅，包括由登機口到達入境處，坦言「成功嘅，但效率麻麻地，理由係人太多」，自動駕駛電動輪椅比較禮讓，「時間比想像中耐」，有乘客寧願選擇慢慢走路。姚又稱，發展無人駕駛技術主要有三個理念，包括效率、安全、減少對人手的依賴，現時一架拖車可以「慳到4個人」，工人亦可從司機位置升到做監控的層面。
+on.cc東網
+</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:20:35</t>
+  </si>
+  <si>
+    <t>科技、社會</t>
+  </si>
+  <si>
+    <t>香港機場管理局(機管局)積極發展無人駕駛技術，並將其應用於機場運作，計劃於明年底在機場與航天城之間試運行無人駕駛巴士，並逐步擴展至2028年覆蓋東涌新市鎮。此舉旨在提升效率、保障安全，並減少對人手的依賴。目前，機場已大規模應用無人駕駛技術於拖車、巡邏車和穿梭巴士等方面。此外，機管局亦正探索無人駕駛技術在其他交通工具上的應用，例如電動輪椅，但目前效率仍有待提升。</t>
+  </si>
+  <si>
+    <t>香港機場管理局明年底將在航天走廊試運行無人駕駛巴士，預計分階段投入26架車輛，至2028年延伸至東涌新市鎮。機管局表示，發展無人駕駛技術旨在提升效率、安全及減少對人手的依賴。機場已大規模應用無人駕駛技術於拖車、巡邏車及穿梭巴士，總行車距離超過171.7萬公里。機管局亦正探索將無人駕駛技術應用於電動輪椅，但目前效率仍有待提升。</t>
+  </si>
+  <si>
+    <t>香港機場、機管局、無人駕駛、自動駕駛、巴士、航天走廊、航天城、東涌新市鎮、電動車、效率、安全、人手、拖車、巡邏車、穿梭巴士、電動輪椅、三跑系統、港珠澳大橋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升效率：無人駕駛技術可以提高運輸效率，縮短旅客出行時間。
+提升安全：無人駕駛系統配備多個攝影鏡頭和監控系統，可以提升安全水平，減少人为错误。
+減少人力成本：無人駕駛可以減少對人手的依賴，降低人力成本。
+技術領先：香港機場成為全球唯一大規模應用無人駕駛車輛於實際運作的機場，技術領先地位明顯。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術成熟度：無人駕駛技術仍處於發展階段，可能存在一些技術缺陷和潛在風險。
+公眾接受度：公眾對無人駕駛技術的接受度可能需要時間培養。
+初期成本：無人駕駛系統的初期投資成本較高。
+電動輪椅應用受限：目前無人駕駛電動輪椅的應用效率較低，需進一步改善。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場拓展：無人駕駛技術可以應用於其他交通領域，市場潛力巨大。
+技術升級：持續研發和改進無人駕駛技術，提升其性能和可靠性。
+合作夥伴：與其他企業合作，共同推動無人駕駛技術的發展和應用。
+政府政策支持：獲得政府政策支持，可以加速無人駕駛技術的發展和應用。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術競爭：其他地區的無人駕駛技術發展迅速，可能帶來競爭壓力。
+法規限制：相關法規和政策的不完善可能限制無人駕駛技術的發展和應用。
+安全隱患：無人駕駛系統的安全性問題可能引發社會關注和擔憂。
+天災人禍：惡劣天氣或突發事件可能影響無人駕駛系統的正常運作。
+</t>
+  </si>
+  <si>
+    <t>大型雕塑「123木頭人」首亮相 宜蘭羅東文化工場展至明年4／13</t>
+  </si>
+  <si>
+    <t>https://www.chinatimes.com/realtimenews/20241229002407-260405</t>
+  </si>
+  <si>
+    <t>中時新聞網宜蘭縣政府致力於推廣藝術普及與當代藝術展覽，邀請第21屆國家文藝獎視覺藝術類得主－台灣當代藝術重要開拓者莊普，特別策畫「莊普：摺景」展覽，即日起至明年4月13日在羅東...3 小時前</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府致力於推廣藝術普及與當代藝術展覽，邀請第21屆國家文藝獎視覺藝術類得主－台灣當代藝術重要開拓者莊普，特別策畫「莊普：摺景」展覽，即日起至明年4月13日在羅東文化工場展出。展覽焦點之一為首次亮相的大型雕塑裝置「123木頭人（裂變）」，展現當代藝術的多樣性與深度。
+策展人游崴，以「摺景」為主題，聚焦莊普「以摺法造景」的創作形式，探索自然與當代生活的深刻連結；展出作品涵蓋紙上創作、淺浮雕、現成物藝術、大型雕塑與裝置等，展區橫跨文化工場「天空藝廊」的兩處室內展場及戶外空間，讓觀者身臨其境，感受藝術與自然交融的獨特魅力。
+縣府文化局表示，大型雕塑裝置「123木頭人（裂變）」，作品靈感源於莊普童年的木材廠記憶，結合羅東林業歷史與風災後的場景，深刻詮釋人與自然間的微妙互動。此外，展覽也呈現一系列以摺法創造肌理的淺浮雕新作，透過幾何色塊與金屬條重新詮釋山水畫與抽象表現語彙。
+文化局又說，紙上創作則以摺法創造植物圖像，將「圖與地」轉化為「物與影」，展現莊普細膩且充滿實驗精神的創作語言；多件大型場景式雕塑以開放結構與摺曲工業材料的創新表現，激發觀者重新思考人類與自然的關係。
+縣長林姿妙表示，莊普老師作為台灣當代藝術的重要推手，此次以「摺景」為題，透過各種形式的創作，包括紙上作品、浮雕、裝置藝術及大型雕塑，帶領大家重新思考自然、生活與空間之間的關係，期盼透過此展覽，民眾能更珍視我們所處的環境，激發更多對自然與生活的關懷與愛護。
+展覽即日起展出至明年4月13日，開放時間為每日上午9時至12時，下午1時至5時，週一及每月最後一天休館；展覽期間也將特別安排莊普親自主持專題講座，詳情請關注羅東文化工場的官方網站與臉書專頁。</t>
+  </si>
+  <si>
+    <t>2024-12-29 18:16:55</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府於羅東文化工場舉辦「莊普：摺景」展覽，展出國家文藝獎得主莊普的紙上創作、淺浮雕、現成物藝術、大型雕塑與裝置等作品。展覽以「摺法造景」為主題，探索自然與當代生活的連結，其中大型雕塑裝置「123木頭人（裂變）」為首次亮相，結合羅東林業歷史與風災後的場景，深刻詮釋人與自然的互動。展覽橫跨室內外展場，讓觀者感受藝術與自然交融的獨特魅力，並將舉辦莊普專題講座。</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府舉辦「莊普：摺景」展覽，展出國家文藝獎得主莊普作品，以「摺法造景」為主題，探索自然與當代生活的連結。「123木頭人（裂變）」大型雕塑裝置為展覽焦點，結合羅東林業歷史與風災後的場景，展現人與自然的互動。展覽涵蓋紙上創作、淺浮雕、大型雕塑等，展區橫跨室內外，讓觀者身臨其境。縣長林姿妙期盼民眾能更珍視環境，激發對自然與生活的關懷。展覽即日起至明年4月13日展出。</t>
+  </si>
+  <si>
+    <t>莊普、摺景、羅東文化工場、宜蘭縣政府、國家文藝獎、當代藝術、大型雕塑、123木頭人（裂變）、紙上創作、淺浮雕、裝置藝術、自然、環境、展覽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展覽主題新穎，以「摺法造景」結合當代藝術與自然元素，吸引大眾目光。
+展覽作品形式多元，涵蓋不同媒材和創作手法，豐富觀賞體驗。
+邀請重量級藝術家莊普參展，提升展覽的藝術性及公信力。
+宜蘭縣政府積極推廣藝術普及，提升地方文化內涵。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">展覽時間有限，可能無法滿足所有想參觀民眾的需求。
+展覽地點位於宜蘭，交通不便可能影響外地觀眾參與。
+宣傳力度不足，可能導致部分目標群體未能得知展覽訊息。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可透過網路及社群媒體擴大宣傳，吸引更多觀眾。
+可結合地方產業，設計相關文創商品，增加經濟效益。
+可舉辦更多藝術家講座或工作坊，促進藝術教育與交流。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他文化活動競爭，可能分流觀眾。
+疫情或其他突發事件，可能影響展覽順利進行。
+民眾對當代藝術接受度不高，可能影響參觀人數。
 </t>
   </si>
 </sst>
@@ -3138,7 +3258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3312,10 +3432,10 @@
         <v>51</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s" s="0">
         <v>36</v>
@@ -3323,52 +3443,52 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>67</v>
@@ -3397,7 +3517,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>73</v>
@@ -3604,10 +3724,10 @@
         <v>51</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s" s="0">
         <v>36</v>
@@ -3618,58 +3738,58 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="F9" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="G9" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="H9" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="I9" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="J9" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="K9" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="L9" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="M9" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="N9" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="N9" t="s" s="0">
+      <c r="O9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="P9" t="s" s="0">
+      <c r="Q9" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="Q9" t="s" s="0">
-        <v>141</v>
-      </c>
       <c r="R9" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>36</v>
@@ -3677,58 +3797,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="G10" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="I10" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="J10" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="K10" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="L10" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="M10" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="N10" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="N10" t="s" s="0">
-        <v>155</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s" s="0">
         <v>36</v>
@@ -3736,55 +3856,55 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="G11" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="I11" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="J11" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="K11" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="L11" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="M11" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="N11" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="M11" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="N11" t="s" s="0">
-        <v>172</v>
       </c>
       <c r="O11" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R11" t="s" s="0">
         <v>36</v>
@@ -3795,43 +3915,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="F12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="H12" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="I12" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s" s="0">
+      <c r="J12" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="K12" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="L12" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="M12" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="M12" t="s" s="0">
-        <v>185</v>
       </c>
       <c r="N12" t="s" s="0">
         <v>51</v>
@@ -3840,10 +3960,10 @@
         <v>33</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R12" t="s" s="0">
         <v>81</v>
@@ -3854,55 +3974,55 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="F13" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="H13" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="I13" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="G13" t="s" s="0">
+      <c r="J13" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="K13" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="L13" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="M13" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="N13" t="s" s="0">
         <v>196</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="M13" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="N13" t="s" s="0">
-        <v>199</v>
       </c>
       <c r="O13" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="R13" t="s" s="0">
         <v>36</v>
@@ -3913,46 +4033,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="E14" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="G14" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="H14" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="I14" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="J14" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="K14" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="L14" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="M14" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="K14" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>212</v>
-      </c>
       <c r="N14" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="0">
         <v>51</v>
@@ -3961,7 +4081,7 @@
         <v>36</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R14" t="s" s="0">
         <v>36</v>
@@ -3972,46 +4092,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="E15" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="F15" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="G15" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="H15" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="I15" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="J15" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="K15" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="L15" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="M15" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="K15" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>225</v>
-      </c>
       <c r="N15" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s" s="0">
         <v>51</v>
@@ -4023,7 +4143,7 @@
         <v>81</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S15" t="s" s="0">
         <v>36</v>
@@ -4031,52 +4151,52 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="E16" t="s" s="0">
         <v>228</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>230</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>231</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G16" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="J16" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="K16" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="L16" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="M16" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="N16" t="s" s="0">
         <v>236</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="N16" t="s" s="0">
-        <v>239</v>
       </c>
       <c r="O16" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q16" t="s" s="0">
         <v>111</v>
@@ -4090,46 +4210,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="F17" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="H17" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="I17" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G17" t="s" s="0">
+      <c r="J17" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="K17" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="L17" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="M17" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="K17" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>251</v>
-      </c>
       <c r="N17" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O17" t="s" s="0">
         <v>51</v>
@@ -4149,43 +4269,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="F18" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>257</v>
-      </c>
       <c r="G18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N18" t="s" s="0">
         <v>36</v>
@@ -4208,52 +4328,52 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="E19" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="F19" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="G19" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="H19" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="I19" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="J19" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="K19" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="L19" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="J19" t="s" s="0">
+      <c r="M19" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="K19" t="s" s="0">
+      <c r="N19" t="s" s="0">
         <v>268</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="N19" t="s" s="0">
-        <v>271</v>
       </c>
       <c r="O19" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s" s="0">
         <v>111</v>
@@ -4267,55 +4387,55 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="F20" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="H20" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="I20" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="J20" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s" s="0">
+      <c r="K20" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="L20" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="I20" t="s" s="0">
+      <c r="M20" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="J20" t="s" s="0">
+      <c r="N20" t="s" s="0">
         <v>281</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="L20" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="M20" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="N20" t="s" s="0">
-        <v>285</v>
       </c>
       <c r="O20" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P20" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R20" t="s" s="0">
         <v>111</v>
@@ -4326,46 +4446,46 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="G21" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="H21" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="I21" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="J21" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="K21" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="H21" t="s" s="0">
+      <c r="L21" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="I21" t="s" s="0">
+      <c r="M21" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="J21" t="s" s="0">
+      <c r="N21" t="s" s="0">
         <v>295</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="L21" t="s" s="0">
-        <v>297</v>
-      </c>
-      <c r="M21" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="N21" t="s" s="0">
-        <v>299</v>
       </c>
       <c r="O21" t="s" s="0">
         <v>36</v>
@@ -4374,7 +4494,7 @@
         <v>111</v>
       </c>
       <c r="Q21" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R21" t="s" s="0">
         <v>35</v>
@@ -4385,58 +4505,58 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="F22" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="H22" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="I22" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="J22" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="F22" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G22" t="s" s="0">
+      <c r="K22" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="H22" t="s" s="0">
+      <c r="L22" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="I22" t="s" s="0">
+      <c r="M22" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="J22" t="s" s="0">
+      <c r="N22" t="s" s="0">
         <v>308</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>309</v>
-      </c>
-      <c r="L22" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="M22" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="N22" t="s" s="0">
-        <v>312</v>
       </c>
       <c r="O22" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P22" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="R22" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S22" t="s" s="0">
         <v>36</v>
@@ -4444,43 +4564,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>313</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>315</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>317</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G23" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K23" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="H23" t="s" s="0">
+      <c r="L23" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="M23" t="s" s="0">
         <v>320</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>321</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="L23" t="s" s="0">
-        <v>323</v>
-      </c>
-      <c r="M23" t="s" s="0">
-        <v>324</v>
       </c>
       <c r="N23" t="s" s="0">
         <v>51</v>
@@ -4495,7 +4615,7 @@
         <v>36</v>
       </c>
       <c r="R23" t="s" s="0">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S23" t="s" s="0">
         <v>36</v>
@@ -4503,58 +4623,58 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="G24" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="H24" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="I24" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="J24" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="K24" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="H24" t="s" s="0">
+      <c r="L24" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="I24" t="s" s="0">
+      <c r="M24" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="J24" t="s" s="0">
+      <c r="N24" t="s" s="0">
         <v>334</v>
-      </c>
-      <c r="K24" t="s" s="0">
-        <v>335</v>
-      </c>
-      <c r="L24" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="M24" t="s" s="0">
-        <v>337</v>
-      </c>
-      <c r="N24" t="s" s="0">
-        <v>338</v>
       </c>
       <c r="O24" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P24" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s" s="0">
         <v>36</v>
       </c>
       <c r="R24" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S24" t="s" s="0">
         <v>36</v>
@@ -4562,43 +4682,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>340</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>341</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>342</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>343</v>
-      </c>
       <c r="F25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="0">
         <v>36</v>
@@ -4621,43 +4741,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>344</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>346</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>348</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G26" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="K26" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="H26" t="s" s="0">
+      <c r="L26" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="I26" t="s" s="0">
+      <c r="M26" t="s" s="0">
         <v>351</v>
-      </c>
-      <c r="J26" t="s" s="0">
-        <v>352</v>
-      </c>
-      <c r="K26" t="s" s="0">
-        <v>353</v>
-      </c>
-      <c r="L26" t="s" s="0">
-        <v>354</v>
-      </c>
-      <c r="M26" t="s" s="0">
-        <v>355</v>
       </c>
       <c r="N26" t="s" s="0">
         <v>51</v>
@@ -4680,58 +4800,58 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>357</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>358</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>359</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>360</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G27" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="K27" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="H27" t="s" s="0">
+      <c r="L27" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="I27" t="s" s="0">
+      <c r="M27" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="J27" t="s" s="0">
+      <c r="N27" t="s" s="0">
         <v>364</v>
-      </c>
-      <c r="K27" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="L27" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="M27" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="N27" t="s" s="0">
-        <v>368</v>
       </c>
       <c r="O27" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P27" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q27" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="R27" t="s" s="0">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S27" t="s" s="0">
         <v>36</v>
@@ -4739,58 +4859,58 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="F28" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="H28" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="I28" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="J28" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="F28" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="G28" t="s" s="0">
+      <c r="K28" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="H28" t="s" s="0">
+      <c r="L28" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="I28" t="s" s="0">
+      <c r="M28" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="J28" t="s" s="0">
-        <v>378</v>
-      </c>
-      <c r="K28" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="L28" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="M28" t="s" s="0">
-        <v>381</v>
-      </c>
       <c r="N28" t="s" s="0">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O28" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P28" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s" s="0">
         <v>33</v>
       </c>
       <c r="R28" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S28" t="s" s="0">
         <v>36</v>
@@ -4798,46 +4918,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="F29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="H29" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="I29" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="J29" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="F29" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s" s="0">
+      <c r="K29" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="H29" t="s" s="0">
+      <c r="L29" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="I29" t="s" s="0">
+      <c r="M29" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="J29" t="s" s="0">
+      <c r="N29" t="s" s="0">
         <v>390</v>
-      </c>
-      <c r="K29" t="s" s="0">
-        <v>391</v>
-      </c>
-      <c r="L29" t="s" s="0">
-        <v>392</v>
-      </c>
-      <c r="M29" t="s" s="0">
-        <v>393</v>
-      </c>
-      <c r="N29" t="s" s="0">
-        <v>394</v>
       </c>
       <c r="O29" t="s" s="0">
         <v>33</v>
@@ -4857,52 +4977,52 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="G30" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="H30" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="I30" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="J30" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="K30" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="H30" t="s" s="0">
+      <c r="L30" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="I30" t="s" s="0">
+      <c r="M30" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="J30" t="s" s="0">
+      <c r="N30" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="K30" t="s" s="0">
-        <v>405</v>
-      </c>
-      <c r="L30" t="s" s="0">
-        <v>406</v>
-      </c>
-      <c r="M30" t="s" s="0">
-        <v>407</v>
-      </c>
-      <c r="N30" t="s" s="0">
-        <v>408</v>
-      </c>
       <c r="O30" t="s" s="0">
         <v>36</v>
       </c>
       <c r="P30" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="s" s="0">
         <v>51</v>
@@ -4916,52 +5036,52 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="F31" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="G31" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="H31" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="I31" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="J31" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="K31" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="H31" t="s" s="0">
+      <c r="L31" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="I31" t="s" s="0">
+      <c r="M31" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="J31" t="s" s="0">
+      <c r="N31" t="s" s="0">
         <v>418</v>
-      </c>
-      <c r="K31" t="s" s="0">
-        <v>419</v>
-      </c>
-      <c r="L31" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="M31" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="N31" t="s" s="0">
-        <v>422</v>
       </c>
       <c r="O31" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P31" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s" s="0">
         <v>51</v>
@@ -4975,58 +5095,58 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="G32" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="H32" t="s" s="0">
         <v>426</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="I32" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="J32" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="K32" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="H32" t="s" s="0">
+      <c r="L32" t="s" s="0">
         <v>430</v>
       </c>
-      <c r="I32" t="s" s="0">
+      <c r="M32" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="J32" t="s" s="0">
+      <c r="N32" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="K32" t="s" s="0">
+      <c r="O32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P32" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="L32" t="s" s="0">
-        <v>434</v>
-      </c>
-      <c r="M32" t="s" s="0">
-        <v>435</v>
-      </c>
-      <c r="N32" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="O32" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="P32" t="s" s="0">
-        <v>437</v>
-      </c>
       <c r="Q32" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R32" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s" s="0">
         <v>36</v>
@@ -5034,43 +5154,43 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="0">
         <v>36</v>
@@ -5093,55 +5213,55 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="E34" t="s" s="0">
         <v>442</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>443</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>444</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>445</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>446</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G34" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K34" t="s" s="0">
         <v>447</v>
       </c>
-      <c r="H34" t="s" s="0">
+      <c r="L34" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="I34" t="s" s="0">
+      <c r="M34" t="s" s="0">
         <v>449</v>
       </c>
-      <c r="J34" t="s" s="0">
+      <c r="N34" t="s" s="0">
         <v>450</v>
-      </c>
-      <c r="K34" t="s" s="0">
-        <v>451</v>
-      </c>
-      <c r="L34" t="s" s="0">
-        <v>452</v>
-      </c>
-      <c r="M34" t="s" s="0">
-        <v>453</v>
-      </c>
-      <c r="N34" t="s" s="0">
-        <v>454</v>
       </c>
       <c r="O34" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P34" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q34" t="s" s="0">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R34" t="s" s="0">
         <v>35</v>
@@ -5152,58 +5272,58 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="E35" t="s" s="0">
         <v>456</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="G35" t="s" s="0">
         <v>458</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="H35" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="I35" t="s" s="0">
         <v>460</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="J35" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="K35" t="s" s="0">
         <v>462</v>
       </c>
-      <c r="H35" t="s" s="0">
+      <c r="L35" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="I35" t="s" s="0">
+      <c r="M35" t="s" s="0">
         <v>464</v>
       </c>
-      <c r="J35" t="s" s="0">
+      <c r="N35" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="K35" t="s" s="0">
+      <c r="O35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P35" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="Q35" t="s" s="0">
         <v>466</v>
       </c>
-      <c r="L35" t="s" s="0">
+      <c r="R35" t="s" s="0">
         <v>467</v>
-      </c>
-      <c r="M35" t="s" s="0">
-        <v>468</v>
-      </c>
-      <c r="N35" t="s" s="0">
-        <v>469</v>
-      </c>
-      <c r="O35" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="P35" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="Q35" t="s" s="0">
-        <v>470</v>
-      </c>
-      <c r="R35" t="s" s="0">
-        <v>471</v>
       </c>
       <c r="S35" t="s" s="0">
         <v>36</v>
@@ -5211,58 +5331,58 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="G36" t="s" s="0">
         <v>474</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="H36" t="s" s="0">
         <v>475</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="I36" t="s" s="0">
         <v>476</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="J36" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="G36" t="s" s="0">
+      <c r="K36" t="s" s="0">
         <v>478</v>
       </c>
-      <c r="H36" t="s" s="0">
+      <c r="L36" t="s" s="0">
         <v>479</v>
       </c>
-      <c r="I36" t="s" s="0">
+      <c r="M36" t="s" s="0">
         <v>480</v>
       </c>
-      <c r="J36" t="s" s="0">
+      <c r="N36" t="s" s="0">
         <v>481</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>482</v>
-      </c>
-      <c r="L36" t="s" s="0">
-        <v>483</v>
-      </c>
-      <c r="M36" t="s" s="0">
-        <v>484</v>
-      </c>
-      <c r="N36" t="s" s="0">
-        <v>485</v>
       </c>
       <c r="O36" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P36" t="s" s="0">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="Q36" t="s" s="0">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="R36" t="s" s="0">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S36" t="s" s="0">
         <v>36</v>
@@ -5270,55 +5390,55 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="E37" t="s" s="0">
         <v>486</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="F37" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="H37" t="s" s="0">
         <v>488</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="I37" t="s" s="0">
         <v>489</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="J37" t="s" s="0">
         <v>490</v>
       </c>
-      <c r="F37" t="s" s="0">
-        <v>428</v>
-      </c>
-      <c r="G37" t="s" s="0">
+      <c r="K37" t="s" s="0">
         <v>491</v>
       </c>
-      <c r="H37" t="s" s="0">
+      <c r="L37" t="s" s="0">
         <v>492</v>
       </c>
-      <c r="I37" t="s" s="0">
+      <c r="M37" t="s" s="0">
         <v>493</v>
       </c>
-      <c r="J37" t="s" s="0">
+      <c r="N37" t="s" s="0">
         <v>494</v>
       </c>
-      <c r="K37" t="s" s="0">
+      <c r="O37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P37" t="s" s="0">
         <v>495</v>
       </c>
-      <c r="L37" t="s" s="0">
+      <c r="Q37" t="s" s="0">
         <v>496</v>
-      </c>
-      <c r="M37" t="s" s="0">
-        <v>497</v>
-      </c>
-      <c r="N37" t="s" s="0">
-        <v>498</v>
-      </c>
-      <c r="O37" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="P37" t="s" s="0">
-        <v>499</v>
-      </c>
-      <c r="Q37" t="s" s="0">
-        <v>500</v>
       </c>
       <c r="R37" t="s" s="0">
         <v>81</v>
@@ -5329,58 +5449,58 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E38" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="F38" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="G38" t="s" s="0">
         <v>502</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="H38" t="s" s="0">
         <v>503</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="I38" t="s" s="0">
         <v>504</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="J38" t="s" s="0">
         <v>505</v>
       </c>
-      <c r="F38" t="s" s="0">
-        <v>477</v>
-      </c>
-      <c r="G38" t="s" s="0">
+      <c r="K38" t="s" s="0">
         <v>506</v>
       </c>
-      <c r="H38" t="s" s="0">
+      <c r="L38" t="s" s="0">
         <v>507</v>
       </c>
-      <c r="I38" t="s" s="0">
+      <c r="M38" t="s" s="0">
         <v>508</v>
       </c>
-      <c r="J38" t="s" s="0">
+      <c r="N38" t="s" s="0">
         <v>509</v>
-      </c>
-      <c r="K38" t="s" s="0">
-        <v>510</v>
-      </c>
-      <c r="L38" t="s" s="0">
-        <v>511</v>
-      </c>
-      <c r="M38" t="s" s="0">
-        <v>512</v>
-      </c>
-      <c r="N38" t="s" s="0">
-        <v>513</v>
       </c>
       <c r="O38" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P38" t="s" s="0">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q38" t="s" s="0">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="R38" t="s" s="0">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="S38" t="s" s="0">
         <v>36</v>
@@ -5388,43 +5508,43 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N39" t="s" s="0">
         <v>36</v>
@@ -5447,52 +5567,52 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="E40" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="F40" t="s" s="0">
         <v>520</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="G40" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="H40" t="s" s="0">
         <v>522</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="I40" t="s" s="0">
         <v>523</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="J40" t="s" s="0">
         <v>524</v>
       </c>
-      <c r="G40" t="s" s="0">
+      <c r="K40" t="s" s="0">
         <v>525</v>
       </c>
-      <c r="H40" t="s" s="0">
+      <c r="L40" t="s" s="0">
         <v>526</v>
       </c>
-      <c r="I40" t="s" s="0">
+      <c r="M40" t="s" s="0">
         <v>527</v>
       </c>
-      <c r="J40" t="s" s="0">
-        <v>528</v>
-      </c>
-      <c r="K40" t="s" s="0">
-        <v>529</v>
-      </c>
-      <c r="L40" t="s" s="0">
-        <v>530</v>
-      </c>
-      <c r="M40" t="s" s="0">
-        <v>531</v>
-      </c>
       <c r="N40" t="s" s="0">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O40" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P40" t="s" s="0">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="Q40" t="s" s="0">
         <v>111</v>
@@ -5506,43 +5626,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E41" t="s" s="0">
         <v>532</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>533</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>534</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>535</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>536</v>
-      </c>
       <c r="F41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N41" t="s" s="0">
         <v>36</v>
@@ -5565,46 +5685,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E42" t="s" s="0">
         <v>537</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="F42" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="G42" t="s" s="0">
         <v>538</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="H42" t="s" s="0">
         <v>539</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="I42" t="s" s="0">
         <v>540</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="J42" t="s" s="0">
         <v>541</v>
       </c>
-      <c r="F42" t="s" s="0">
-        <v>524</v>
-      </c>
-      <c r="G42" t="s" s="0">
+      <c r="K42" t="s" s="0">
         <v>542</v>
       </c>
-      <c r="H42" t="s" s="0">
+      <c r="L42" t="s" s="0">
         <v>543</v>
       </c>
-      <c r="I42" t="s" s="0">
+      <c r="M42" t="s" s="0">
         <v>544</v>
       </c>
-      <c r="J42" t="s" s="0">
+      <c r="N42" t="s" s="0">
         <v>545</v>
-      </c>
-      <c r="K42" t="s" s="0">
-        <v>546</v>
-      </c>
-      <c r="L42" t="s" s="0">
-        <v>547</v>
-      </c>
-      <c r="M42" t="s" s="0">
-        <v>548</v>
-      </c>
-      <c r="N42" t="s" s="0">
-        <v>549</v>
       </c>
       <c r="O42" t="s" s="0">
         <v>51</v>
@@ -5624,46 +5744,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="E43" t="s" s="0">
         <v>550</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="F43" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="G43" t="s" s="0">
         <v>551</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="H43" t="s" s="0">
         <v>552</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="I43" t="s" s="0">
         <v>553</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="J43" t="s" s="0">
         <v>554</v>
       </c>
-      <c r="F43" t="s" s="0">
-        <v>428</v>
-      </c>
-      <c r="G43" t="s" s="0">
+      <c r="K43" t="s" s="0">
         <v>555</v>
       </c>
-      <c r="H43" t="s" s="0">
+      <c r="L43" t="s" s="0">
         <v>556</v>
       </c>
-      <c r="I43" t="s" s="0">
+      <c r="M43" t="s" s="0">
         <v>557</v>
       </c>
-      <c r="J43" t="s" s="0">
+      <c r="N43" t="s" s="0">
         <v>558</v>
-      </c>
-      <c r="K43" t="s" s="0">
-        <v>559</v>
-      </c>
-      <c r="L43" t="s" s="0">
-        <v>560</v>
-      </c>
-      <c r="M43" t="s" s="0">
-        <v>561</v>
-      </c>
-      <c r="N43" t="s" s="0">
-        <v>394</v>
       </c>
       <c r="O43" t="s" s="0">
         <v>36</v>
@@ -5672,10 +5792,10 @@
         <v>51</v>
       </c>
       <c r="Q43" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R43" t="s" s="0">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="S43" t="s" s="0">
         <v>36</v>
@@ -5683,46 +5803,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>562</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="D44" t="s" s="0">
         <v>563</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="E44" t="s" s="0">
         <v>564</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>565</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>566</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G44" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="I44" t="s" s="0">
         <v>567</v>
       </c>
-      <c r="H44" t="s" s="0">
+      <c r="J44" t="s" s="0">
         <v>568</v>
       </c>
-      <c r="I44" t="s" s="0">
+      <c r="K44" t="s" s="0">
         <v>569</v>
       </c>
-      <c r="J44" t="s" s="0">
+      <c r="L44" t="s" s="0">
         <v>570</v>
       </c>
-      <c r="K44" t="s" s="0">
+      <c r="M44" t="s" s="0">
         <v>571</v>
       </c>
-      <c r="L44" t="s" s="0">
+      <c r="N44" t="s" s="0">
         <v>572</v>
-      </c>
-      <c r="M44" t="s" s="0">
-        <v>573</v>
-      </c>
-      <c r="N44" t="s" s="0">
-        <v>574</v>
       </c>
       <c r="O44" t="s" s="0">
         <v>51</v>
@@ -5742,43 +5862,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>575</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="D45" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="E45" t="s" s="0">
         <v>576</v>
       </c>
-      <c r="C45" t="s" s="0">
-        <v>577</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>342</v>
-      </c>
-      <c r="E45" t="s" s="0">
-        <v>578</v>
-      </c>
       <c r="F45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M45" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N45" t="s" s="0">
         <v>36</v>
@@ -5801,58 +5921,58 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>579</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="D46" t="s" s="0">
         <v>580</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="E46" t="s" s="0">
         <v>581</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>582</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>583</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G46" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="I46" t="s" s="0">
         <v>584</v>
       </c>
-      <c r="H46" t="s" s="0">
+      <c r="J46" t="s" s="0">
         <v>585</v>
       </c>
-      <c r="I46" t="s" s="0">
+      <c r="K46" t="s" s="0">
         <v>586</v>
       </c>
-      <c r="J46" t="s" s="0">
+      <c r="L46" t="s" s="0">
         <v>587</v>
       </c>
-      <c r="K46" t="s" s="0">
+      <c r="M46" t="s" s="0">
         <v>588</v>
       </c>
-      <c r="L46" t="s" s="0">
+      <c r="N46" t="s" s="0">
         <v>589</v>
-      </c>
-      <c r="M46" t="s" s="0">
-        <v>590</v>
-      </c>
-      <c r="N46" t="s" s="0">
-        <v>591</v>
       </c>
       <c r="O46" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P46" t="s" s="0">
-        <v>173</v>
+        <v>590</v>
       </c>
       <c r="Q46" t="s" s="0">
         <v>67</v>
       </c>
       <c r="R46" t="s" s="0">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="S46" t="s" s="0">
         <v>36</v>
@@ -5860,46 +5980,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>592</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="C47" t="s" s="0">
         <v>593</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="D47" t="s" s="0">
         <v>594</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="E47" t="s" s="0">
         <v>595</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>596</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G47" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="H47" t="s" s="0">
         <v>597</v>
       </c>
-      <c r="H47" t="s" s="0">
+      <c r="I47" t="s" s="0">
         <v>598</v>
       </c>
-      <c r="I47" t="s" s="0">
+      <c r="J47" t="s" s="0">
         <v>599</v>
       </c>
-      <c r="J47" t="s" s="0">
+      <c r="K47" t="s" s="0">
         <v>600</v>
       </c>
-      <c r="K47" t="s" s="0">
+      <c r="L47" t="s" s="0">
         <v>601</v>
       </c>
-      <c r="L47" t="s" s="0">
+      <c r="M47" t="s" s="0">
         <v>602</v>
       </c>
-      <c r="M47" t="s" s="0">
-        <v>603</v>
-      </c>
       <c r="N47" t="s" s="0">
-        <v>111</v>
+        <v>467</v>
       </c>
       <c r="O47" t="s" s="0">
         <v>51</v>
@@ -5911,7 +6031,7 @@
         <v>81</v>
       </c>
       <c r="R47" t="s" s="0">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="S47" t="s" s="0">
         <v>51</v>
@@ -5919,58 +6039,58 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>604</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="C48" t="s" s="0">
         <v>605</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="D48" t="s" s="0">
         <v>606</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="E48" t="s" s="0">
         <v>607</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>608</v>
       </c>
       <c r="F48" t="s" s="0">
         <v>42</v>
       </c>
       <c r="G48" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="H48" t="s" s="0">
         <v>609</v>
       </c>
-      <c r="H48" t="s" s="0">
+      <c r="I48" t="s" s="0">
         <v>610</v>
       </c>
-      <c r="I48" t="s" s="0">
+      <c r="J48" t="s" s="0">
         <v>611</v>
       </c>
-      <c r="J48" t="s" s="0">
+      <c r="K48" t="s" s="0">
         <v>612</v>
       </c>
-      <c r="K48" t="s" s="0">
+      <c r="L48" t="s" s="0">
         <v>613</v>
       </c>
-      <c r="L48" t="s" s="0">
+      <c r="M48" t="s" s="0">
         <v>614</v>
       </c>
-      <c r="M48" t="s" s="0">
+      <c r="N48" t="s" s="0">
         <v>615</v>
-      </c>
-      <c r="N48" t="s" s="0">
-        <v>616</v>
       </c>
       <c r="O48" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P48" t="s" s="0">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q48" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R48" t="s" s="0">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="S48" t="s" s="0">
         <v>51</v>
@@ -5978,52 +6098,52 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="B49" t="s" s="0">
         <v>617</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="C49" t="s" s="0">
         <v>618</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="D49" t="s" s="0">
         <v>619</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="E49" t="s" s="0">
         <v>620</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="F49" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>621</v>
       </c>
-      <c r="F49" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="G49" t="s" s="0">
+      <c r="H49" t="s" s="0">
         <v>622</v>
       </c>
-      <c r="H49" t="s" s="0">
+      <c r="I49" t="s" s="0">
         <v>623</v>
       </c>
-      <c r="I49" t="s" s="0">
+      <c r="J49" t="s" s="0">
         <v>624</v>
       </c>
-      <c r="J49" t="s" s="0">
+      <c r="K49" t="s" s="0">
         <v>625</v>
       </c>
-      <c r="K49" t="s" s="0">
+      <c r="L49" t="s" s="0">
         <v>626</v>
       </c>
-      <c r="L49" t="s" s="0">
+      <c r="M49" t="s" s="0">
         <v>627</v>
       </c>
-      <c r="M49" t="s" s="0">
-        <v>628</v>
-      </c>
       <c r="N49" t="s" s="0">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O49" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P49" t="s" s="0">
-        <v>125</v>
+        <v>628</v>
       </c>
       <c r="Q49" t="s" s="0">
         <v>33</v>
@@ -6082,13 +6202,13 @@
         <v>51</v>
       </c>
       <c r="P50" t="s" s="0">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="Q50" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R50" t="s" s="0">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="S50" t="s" s="0">
         <v>51</v>
@@ -6135,19 +6255,19 @@
         <v>654</v>
       </c>
       <c r="N51" t="s" s="0">
-        <v>655</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s" s="0">
         <v>51</v>
       </c>
       <c r="P51" t="s" s="0">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="Q51" t="s" s="0">
         <v>34</v>
       </c>
       <c r="R51" t="s" s="0">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="S51" t="s" s="0">
         <v>36</v>
@@ -6155,60 +6275,178 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="B52" t="s" s="0">
         <v>656</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="C52" t="s" s="0">
         <v>657</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="D52" t="s" s="0">
         <v>658</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="E52" t="s" s="0">
         <v>659</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="F52" t="s" s="0">
         <v>660</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="G52" t="s" s="0">
         <v>661</v>
       </c>
-      <c r="G52" t="s" s="0">
+      <c r="H52" t="s" s="0">
         <v>662</v>
       </c>
-      <c r="H52" t="s" s="0">
+      <c r="I52" t="s" s="0">
         <v>663</v>
       </c>
-      <c r="I52" t="s" s="0">
+      <c r="J52" t="s" s="0">
         <v>664</v>
       </c>
-      <c r="J52" t="s" s="0">
+      <c r="K52" t="s" s="0">
         <v>665</v>
       </c>
-      <c r="K52" t="s" s="0">
+      <c r="L52" t="s" s="0">
         <v>666</v>
       </c>
-      <c r="L52" t="s" s="0">
+      <c r="M52" t="s" s="0">
         <v>667</v>
       </c>
-      <c r="M52" t="s" s="0">
-        <v>668</v>
-      </c>
       <c r="N52" t="s" s="0">
-        <v>455</v>
+        <v>124</v>
       </c>
       <c r="O52" t="s" s="0">
         <v>95</v>
       </c>
       <c r="P52" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="Q52" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="R52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="S52" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="N53" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="O53" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="P53" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="Q52" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="R52" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="S52" t="s" s="0">
+      <c r="Q53" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R53" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S53" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="L54" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M54" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="N54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R54" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S54" t="s" s="0">
         <v>36</v>
       </c>
     </row>
